--- a/2011.xlsx
+++ b/2011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoangvutuyen/Documents/python_scripts/geoprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80C7E64-8D74-C34B-BAC9-A2C02C667775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABCDE8E-C614-DB42-ADE2-A2369AB7BD7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1000" windowWidth="23260" windowHeight="12580" xr2:uid="{51872B6F-13ED-47DE-83B1-9616B7AB7F6E}"/>
+    <workbookView xWindow="2080" yWindow="2340" windowWidth="23260" windowHeight="12580" xr2:uid="{51872B6F-13ED-47DE-83B1-9616B7AB7F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2011" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Deutschland</t>
   </si>
@@ -172,6 +172,30 @@
   </si>
   <si>
     <t>ESchweiz</t>
+  </si>
+  <si>
+    <t>e_latitude</t>
+  </si>
+  <si>
+    <t>e_longitude</t>
+  </si>
+  <si>
+    <t>N-Libanon</t>
+  </si>
+  <si>
+    <t>N-Jordanien</t>
+  </si>
+  <si>
+    <t>N-Israel</t>
+  </si>
+  <si>
+    <t>N-Irak</t>
+  </si>
+  <si>
+    <t>N-Aegypten</t>
+  </si>
+  <si>
+    <t>N-Tuerkei</t>
   </si>
 </sst>
 </file>
@@ -218,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -236,6 +260,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,35 +575,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281C46FA-02A4-462F-8DEE-AE19D2B278A2}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -630,8 +656,14 @@
       <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -687,8 +719,14 @@
       <c r="R2" s="3">
         <v>3435</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <v>51.106981807499999</v>
+      </c>
+      <c r="T2">
+        <v>10.385780508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -742,8 +780,14 @@
       <c r="R3" s="3">
         <v>640</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3">
+        <v>62.779665193100001</v>
+      </c>
+      <c r="T3" s="1">
+        <v>16.7455804869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -797,8 +841,14 @@
       <c r="R4" s="3">
         <v>640</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4">
+        <v>50.639815755599997</v>
+      </c>
+      <c r="T4">
+        <v>4.6406511391800001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -852,8 +902,14 @@
       <c r="R5" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5">
+        <v>42.768903179699997</v>
+      </c>
+      <c r="T5">
+        <v>25.215529086299998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -903,8 +959,14 @@
       <c r="R6" s="3">
         <v>470</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6">
+        <v>55.981252959300001</v>
+      </c>
+      <c r="T6">
+        <v>10.028009919100001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -958,8 +1020,14 @@
       <c r="R7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7">
+        <v>58.671929717300003</v>
+      </c>
+      <c r="T7">
+        <v>25.542485365600001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1001,8 +1069,14 @@
       <c r="R8" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8">
+        <v>64.498846034899998</v>
+      </c>
+      <c r="T8">
+        <v>26.274665604199999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1054,8 +1128,14 @@
         <v>120</v>
       </c>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9">
+        <v>42.1734401107</v>
+      </c>
+      <c r="T9">
+        <v>-2.7617294451899999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1111,8 +1191,14 @@
       <c r="R10" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10">
+        <v>53.175448703999997</v>
+      </c>
+      <c r="T10">
+        <v>-8.1379356866699997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1168,8 +1254,14 @@
       <c r="R11" s="3">
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11">
+        <v>39.074696230699999</v>
+      </c>
+      <c r="T11">
+        <v>22.9555579369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1225,8 +1317,14 @@
       <c r="R12" s="3">
         <v>540</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12">
+        <v>42.796626414000002</v>
+      </c>
+      <c r="T12">
+        <v>12.0700133907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1251,8 +1349,14 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13">
+        <v>45.080476305700003</v>
+      </c>
+      <c r="T13">
+        <v>16.404128994000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1308,8 +1412,14 @@
       <c r="R14" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14">
+        <v>56.850851626800001</v>
+      </c>
+      <c r="T14">
+        <v>24.9123598332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1365,8 +1475,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <v>55.326109844500003</v>
+      </c>
+      <c r="T15">
+        <v>23.8871935548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1422,8 +1538,14 @@
       <c r="R16" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16">
+        <v>49.767253606799997</v>
+      </c>
+      <c r="T16">
+        <v>6.07182201066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1479,8 +1601,14 @@
       <c r="R17" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17">
+        <v>35.921496322099998</v>
+      </c>
+      <c r="T17">
+        <v>14.4052331643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1536,8 +1664,14 @@
       <c r="R18" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <v>52.100789900199999</v>
+      </c>
+      <c r="T18">
+        <v>5.2814479300699997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1585,8 +1719,14 @@
       <c r="R19" s="3">
         <v>435</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19">
+        <v>47.585494392000001</v>
+      </c>
+      <c r="T19">
+        <v>14.1264760996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1640,8 +1780,14 @@
       <c r="R20" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20">
+        <v>52.127595644199999</v>
+      </c>
+      <c r="T20">
+        <v>19.390128349299999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1695,8 +1841,14 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21">
+        <v>39.595506714499997</v>
+      </c>
+      <c r="T21">
+        <v>-8.5010436126800002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1750,8 +1902,14 @@
       <c r="R22" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22">
+        <v>45.852431274200001</v>
+      </c>
+      <c r="T22">
+        <v>24.9729303933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1805,8 +1963,14 @@
       <c r="R23" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23">
+        <v>48.705475281299996</v>
+      </c>
+      <c r="T23">
+        <v>19.479052181099998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1860,8 +2024,14 @@
       <c r="R24" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <v>46.1155477207</v>
+      </c>
+      <c r="T24">
+        <v>14.804442377599999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1915,8 +2085,14 @@
       <c r="R25" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25">
+        <v>40.244486981100003</v>
+      </c>
+      <c r="T25">
+        <v>-3.6475504732299999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1970,8 +2146,14 @@
       <c r="R26" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26">
+        <v>49.733412329499998</v>
+      </c>
+      <c r="T26">
+        <v>15.3124016281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2015,8 +2197,14 @@
       <c r="R27" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27">
+        <v>47.162775061399998</v>
+      </c>
+      <c r="T27">
+        <v>19.3955911607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2070,8 +2258,14 @@
       <c r="R28" s="3">
         <v>515</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28">
+        <v>54.123871557699999</v>
+      </c>
+      <c r="T28">
+        <v>-2.8656316408400002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2125,8 +2319,14 @@
       <c r="R29" s="6">
         <v>185</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29">
+        <v>34.916672112000001</v>
+      </c>
+      <c r="T29">
+        <v>33.006002195699999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2140,36 +2340,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
+      <c r="J30" s="3"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
+      <c r="L30" s="3"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
+      <c r="N30" s="3"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30">
+        <v>64.995753860700006</v>
+      </c>
+      <c r="T30">
+        <v>-18.573961670799999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2178,38 +2370,30 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
+      <c r="J31" s="3"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
+      <c r="L31" s="3"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
+      <c r="N31" s="3"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31">
+        <v>47.1366583545</v>
+      </c>
+      <c r="T31">
+        <v>9.5357431177900001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2220,7 +2404,7 @@
         <v>4970000</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ref="D32:D33" si="2">SUM((E32*10000)/C32)</f>
+        <f t="shared" ref="D32:D39" si="2">SUM((E32*10000)/C32)</f>
         <v>0.4024144869215292</v>
       </c>
       <c r="E32" s="3">
@@ -2263,8 +2447,14 @@
       <c r="R32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32">
+        <v>68.750155720500004</v>
+      </c>
+      <c r="T32">
+        <v>15.3483465622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2318,9 +2508,250 @@
       <c r="R33" s="3">
         <v>895</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D34" s="2"/>
+      <c r="S33">
+        <v>46.797858783599999</v>
+      </c>
+      <c r="T33">
+        <v>8.2086747061499992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6639142</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>57.508937148806275</v>
+      </c>
+      <c r="E34" s="3">
+        <v>38181</v>
+      </c>
+      <c r="F34" s="3">
+        <v>19817</v>
+      </c>
+      <c r="G34" s="3">
+        <v>18364</v>
+      </c>
+      <c r="H34" s="3">
+        <v>13163</v>
+      </c>
+      <c r="J34" s="3">
+        <v>21768</v>
+      </c>
+      <c r="N34" s="3">
+        <v>3250</v>
+      </c>
+      <c r="S34">
+        <v>31.245790912099999</v>
+      </c>
+      <c r="T34">
+        <v>36.771361040199999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4464427</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="2"/>
+        <v>34.889135828629293</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15576</v>
+      </c>
+      <c r="F35" s="3">
+        <v>9059</v>
+      </c>
+      <c r="G35" s="3">
+        <v>6517</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5975</v>
+      </c>
+      <c r="J35" s="3">
+        <v>9117</v>
+      </c>
+      <c r="N35" s="3">
+        <v>248</v>
+      </c>
+      <c r="P35" s="1">
+        <v>236</v>
+      </c>
+      <c r="S35">
+        <v>33.923066305699997</v>
+      </c>
+      <c r="T35">
+        <v>35.880160715000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7491851</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="2"/>
+        <v>64.933218773304489</v>
+      </c>
+      <c r="E36" s="3">
+        <v>48647</v>
+      </c>
+      <c r="F36" s="3">
+        <v>35465</v>
+      </c>
+      <c r="G36" s="3">
+        <v>13182</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2317</v>
+      </c>
+      <c r="J36" s="3">
+        <v>45830</v>
+      </c>
+      <c r="N36" s="3">
+        <v>500</v>
+      </c>
+      <c r="S36">
+        <v>31.4611010118</v>
+      </c>
+      <c r="T36">
+        <v>35.004446927700002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3">
+        <v>31367957</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="2"/>
+        <v>104.73076075690871</v>
+      </c>
+      <c r="E37" s="3">
+        <v>328519</v>
+      </c>
+      <c r="F37" s="3">
+        <v>166565</v>
+      </c>
+      <c r="G37" s="3">
+        <v>161954</v>
+      </c>
+      <c r="H37" s="3">
+        <v>148183</v>
+      </c>
+      <c r="J37" s="3">
+        <v>165215</v>
+      </c>
+      <c r="N37" s="3">
+        <v>15121</v>
+      </c>
+      <c r="S37">
+        <v>33.039705823200002</v>
+      </c>
+      <c r="T37">
+        <v>43.743531488800002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="3">
+        <v>82914314</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="2"/>
+        <v>13.759385381877488</v>
+      </c>
+      <c r="E38" s="3">
+        <v>114085</v>
+      </c>
+      <c r="F38" s="3">
+        <v>61211</v>
+      </c>
+      <c r="G38" s="3">
+        <v>52864</v>
+      </c>
+      <c r="H38" s="3">
+        <v>54693</v>
+      </c>
+      <c r="J38" s="3">
+        <v>56748</v>
+      </c>
+      <c r="N38" s="3">
+        <v>2644</v>
+      </c>
+      <c r="S38">
+        <v>26.495933106399999</v>
+      </c>
+      <c r="T38">
+        <v>29.861900990799999</v>
+      </c>
+      <c r="U38"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="3">
+        <v>72913709</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4875471771707569</v>
+      </c>
+      <c r="E39" s="3">
+        <v>25429</v>
+      </c>
+      <c r="F39" s="3">
+        <v>14510</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10919</v>
+      </c>
+      <c r="H39" s="3">
+        <v>8577</v>
+      </c>
+      <c r="J39" s="3">
+        <v>16049</v>
+      </c>
+      <c r="N39" s="3">
+        <v>803</v>
+      </c>
+      <c r="S39">
+        <v>39.061602901299999</v>
+      </c>
+      <c r="T39">
+        <v>35.1689534649</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
